--- a/hallsWithAllData.xlsx
+++ b/hallsWithAllData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>اليوم الاول</t>
   </si>
@@ -37,13 +37,13 @@
     <t>الي</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>floor</t>
-  </si>
-  <si>
-    <t>building</t>
+    <t>السعه</t>
+  </si>
+  <si>
+    <t>رقم المبنى</t>
+  </si>
+  <si>
+    <t>رقم الدور</t>
   </si>
   <si>
     <t>A0</t>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
   </si>
   <si>
     <t>C0</t>
@@ -468,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -593,7 +590,7 @@
         <v>80</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3">
         <v>616</v>
@@ -602,7 +599,7 @@
         <v>665</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="3">
         <v>441</v>
@@ -643,7 +640,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="3">
         <v>521</v>
@@ -725,13 +722,13 @@
         <v>13</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="I7" s="3">
+        <v>556</v>
+      </c>
+      <c r="J7" s="3">
+        <v>580</v>
       </c>
       <c r="K7" s="3">
         <v>25</v>
@@ -766,13 +763,13 @@
         <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="3">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="J8" s="3">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="K8" s="3">
         <v>40</v>
@@ -795,7 +792,7 @@
         <v>211</v>
       </c>
       <c r="D9" s="3">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
@@ -810,19 +807,19 @@
         <v>27</v>
       </c>
       <c r="I9" s="3">
-        <v>596</v>
+        <v>321</v>
       </c>
       <c r="J9" s="3">
-        <v>615</v>
+        <v>345</v>
       </c>
       <c r="K9" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -833,10 +830,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="3">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D10" s="3">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>11</v>
@@ -848,16 +845,16 @@
         <v>13</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="3">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="J10" s="3">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="K10" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L10" s="3">
         <v>2</v>
@@ -874,10 +871,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="3">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D11" s="3">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>11</v>
@@ -889,16 +886,16 @@
         <v>13</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="3">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="J11" s="3">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="K11" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L11" s="3">
         <v>2</v>
@@ -915,7 +912,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="3">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D12" s="3">
         <v>320</v>
@@ -930,62 +927,21 @@
         <v>13</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="3">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="J12" s="3">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="K12" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L12" s="3">
         <v>2</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="3">
-        <v>406</v>
-      </c>
-      <c r="J13" s="3">
-        <v>440</v>
-      </c>
-      <c r="K13" s="3">
-        <v>35</v>
-      </c>
-      <c r="L13" s="3">
-        <v>2</v>
-      </c>
-      <c r="M13" s="3">
         <v>1</v>
       </c>
     </row>

--- a/hallsWithAllData.xlsx
+++ b/hallsWithAllData.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_play\final-code\final-code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84053F0E-AD0B-4228-9201-493D2F6C9A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ﻱﻭﺎﻔﻠﺨﻟﺍ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
   <si>
     <t>اليوم الاول</t>
   </si>
@@ -103,8 +109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -171,12 +177,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -223,7 +240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,9 +272,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,6 +324,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -464,37 +517,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="20.7109375" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" customWidth="1"/>
-    <col min="6" max="7" width="13.7109375" customWidth="1"/>
-    <col min="9" max="10" width="13.7109375" customWidth="1"/>
+    <col min="1" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="10" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -535,7 +592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -576,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -617,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -658,7 +715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -699,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -740,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -781,7 +838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -822,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -863,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -904,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -942,6 +999,416 @@
         <v>2</v>
       </c>
       <c r="M12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="3">
+        <v>20</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3">
+        <v>616</v>
+      </c>
+      <c r="G14" s="3">
+        <v>665</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="3">
+        <v>441</v>
+      </c>
+      <c r="J14" s="3">
+        <v>520</v>
+      </c>
+      <c r="K14" s="3">
+        <v>80</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3">
+        <v>81</v>
+      </c>
+      <c r="D15" s="3">
+        <v>115</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="3">
+        <v>521</v>
+      </c>
+      <c r="J15" s="3">
+        <v>555</v>
+      </c>
+      <c r="K15" s="3">
+        <v>35</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3">
+        <v>116</v>
+      </c>
+      <c r="D16" s="3">
+        <v>145</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="3">
+        <v>30</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3">
+        <v>146</v>
+      </c>
+      <c r="D17" s="3">
+        <v>170</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="3">
+        <v>556</v>
+      </c>
+      <c r="J17" s="3">
+        <v>580</v>
+      </c>
+      <c r="K17" s="3">
+        <v>25</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>171</v>
+      </c>
+      <c r="D18" s="3">
+        <v>210</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="3">
+        <v>581</v>
+      </c>
+      <c r="J18" s="3">
+        <v>615</v>
+      </c>
+      <c r="K18" s="3">
+        <v>40</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3">
+        <v>211</v>
+      </c>
+      <c r="D19" s="3">
+        <v>235</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="3">
+        <v>321</v>
+      </c>
+      <c r="J19" s="3">
+        <v>345</v>
+      </c>
+      <c r="K19" s="3">
+        <v>25</v>
+      </c>
+      <c r="L19" s="3">
+        <v>2</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3">
+        <v>236</v>
+      </c>
+      <c r="D20" s="3">
+        <v>255</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="3">
+        <v>346</v>
+      </c>
+      <c r="J20" s="3">
+        <v>365</v>
+      </c>
+      <c r="K20" s="3">
+        <v>20</v>
+      </c>
+      <c r="L20" s="3">
+        <v>2</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3">
+        <v>256</v>
+      </c>
+      <c r="D21" s="3">
+        <v>295</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="3">
+        <v>366</v>
+      </c>
+      <c r="J21" s="3">
+        <v>405</v>
+      </c>
+      <c r="K21" s="3">
+        <v>40</v>
+      </c>
+      <c r="L21" s="3">
+        <v>2</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3">
+        <v>296</v>
+      </c>
+      <c r="D22" s="3">
+        <v>320</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="3">
+        <v>406</v>
+      </c>
+      <c r="J22" s="3">
+        <v>440</v>
+      </c>
+      <c r="K22" s="3">
+        <v>35</v>
+      </c>
+      <c r="L22" s="3">
+        <v>2</v>
+      </c>
+      <c r="M22" s="3">
         <v>1</v>
       </c>
     </row>

--- a/hallsWithAllData.xlsx
+++ b/hallsWithAllData.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_play\final-code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vs-code\final-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD8820F-89F4-43EF-8F7D-D52A83B29563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE2AEC2-8715-4508-8A60-48B1973F582B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="خلفاوى" sheetId="1" r:id="rId1"/>
+    <sheet name="خلفاوي" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>

--- a/hallsWithAllData.xlsx
+++ b/hallsWithAllData.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_play\final-code\final-code\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84053F0E-AD0B-4228-9201-493D2F6C9A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="ﻱﻭﺎﻔﻠﺨﻟﺍ" sheetId="1" r:id="rId1"/>
+    <sheet name="ﺭﻭﺽ ﺍﻟﻔﺮﺝ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
   <si>
     <t>اليوم الاول</t>
   </si>
@@ -67,31 +61,34 @@
     <t>A1</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B0</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
     <t>اعدادي هندسه</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>B0</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>C0</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
   </si>
   <si>
     <t>رابعه حاسبات</t>
@@ -109,8 +106,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -177,23 +174,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -240,7 +226,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,27 +258,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,24 +292,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,41 +467,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="10" width="13.6640625" customWidth="1"/>
+    <col min="1" max="10" width="20.7109375" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="6" max="7" width="13.7109375" customWidth="1"/>
+    <col min="9" max="10" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.5">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -592,7 +538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -633,21 +579,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>80</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3">
         <v>616</v>
@@ -656,7 +602,7 @@
         <v>665</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="3">
         <v>441</v>
@@ -674,18 +620,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3">
-        <v>81</v>
-      </c>
-      <c r="D5" s="3">
-        <v>115</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
@@ -697,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="3">
         <v>521</v>
@@ -715,18 +661,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3">
-        <v>116</v>
-      </c>
-      <c r="D6" s="3">
-        <v>145</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
@@ -756,18 +702,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3">
-        <v>146</v>
-      </c>
-      <c r="D7" s="3">
-        <v>170</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
@@ -779,13 +725,13 @@
         <v>13</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="3">
-        <v>556</v>
-      </c>
-      <c r="J7" s="3">
-        <v>580</v>
+        <v>11</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="K7" s="3">
         <v>25</v>
@@ -797,18 +743,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3">
-        <v>171</v>
-      </c>
-      <c r="D8" s="3">
-        <v>210</v>
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
@@ -820,13 +766,13 @@
         <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I8" s="3">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="J8" s="3">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="K8" s="3">
         <v>40</v>
@@ -838,18 +784,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3">
-        <v>211</v>
-      </c>
-      <c r="D9" s="3">
-        <v>235</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
@@ -864,54 +810,54 @@
         <v>27</v>
       </c>
       <c r="I9" s="3">
-        <v>321</v>
+        <v>596</v>
       </c>
       <c r="J9" s="3">
-        <v>345</v>
+        <v>615</v>
       </c>
       <c r="K9" s="3">
+        <v>30</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="3">
         <v>25</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3">
-        <v>236</v>
-      </c>
-      <c r="D10" s="3">
-        <v>255</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="3">
-        <v>346</v>
-      </c>
-      <c r="J10" s="3">
-        <v>365</v>
-      </c>
-      <c r="K10" s="3">
-        <v>20</v>
       </c>
       <c r="L10" s="3">
         <v>2</v>
@@ -920,18 +866,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3">
-        <v>256</v>
-      </c>
-      <c r="D11" s="3">
-        <v>295</v>
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>11</v>
@@ -943,16 +889,16 @@
         <v>13</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="3">
-        <v>366</v>
-      </c>
-      <c r="J11" s="3">
-        <v>405</v>
+        <v>11</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="K11" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L11" s="3">
         <v>2</v>
@@ -961,18 +907,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3">
-        <v>296</v>
-      </c>
-      <c r="D12" s="3">
-        <v>320</v>
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>11</v>
@@ -984,36 +930,36 @@
         <v>13</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="3">
-        <v>406</v>
-      </c>
-      <c r="J12" s="3">
-        <v>440</v>
+        <v>11</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="K12" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L12" s="3">
         <v>2</v>
       </c>
       <c r="M12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>13</v>
+      <c r="D13" s="3">
+        <v>320</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
@@ -1025,390 +971,21 @@
         <v>13</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="I13" s="3">
+        <v>321</v>
+      </c>
+      <c r="J13" s="3">
+        <v>440</v>
       </c>
       <c r="K13" s="3">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="L13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>80</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3">
-        <v>616</v>
-      </c>
-      <c r="G14" s="3">
-        <v>665</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="3">
-        <v>441</v>
-      </c>
-      <c r="J14" s="3">
-        <v>520</v>
-      </c>
-      <c r="K14" s="3">
-        <v>80</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3">
-        <v>81</v>
-      </c>
-      <c r="D15" s="3">
-        <v>115</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="3">
-        <v>521</v>
-      </c>
-      <c r="J15" s="3">
-        <v>555</v>
-      </c>
-      <c r="K15" s="3">
-        <v>35</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3">
-        <v>116</v>
-      </c>
-      <c r="D16" s="3">
-        <v>145</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="3">
-        <v>30</v>
-      </c>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3">
-        <v>146</v>
-      </c>
-      <c r="D17" s="3">
-        <v>170</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="3">
-        <v>556</v>
-      </c>
-      <c r="J17" s="3">
-        <v>580</v>
-      </c>
-      <c r="K17" s="3">
-        <v>25</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3">
-        <v>171</v>
-      </c>
-      <c r="D18" s="3">
-        <v>210</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="3">
-        <v>581</v>
-      </c>
-      <c r="J18" s="3">
-        <v>615</v>
-      </c>
-      <c r="K18" s="3">
-        <v>40</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3">
-        <v>211</v>
-      </c>
-      <c r="D19" s="3">
-        <v>235</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="3">
-        <v>321</v>
-      </c>
-      <c r="J19" s="3">
-        <v>345</v>
-      </c>
-      <c r="K19" s="3">
-        <v>25</v>
-      </c>
-      <c r="L19" s="3">
-        <v>2</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3">
-        <v>236</v>
-      </c>
-      <c r="D20" s="3">
-        <v>255</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="3">
-        <v>346</v>
-      </c>
-      <c r="J20" s="3">
-        <v>365</v>
-      </c>
-      <c r="K20" s="3">
-        <v>20</v>
-      </c>
-      <c r="L20" s="3">
-        <v>2</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="3">
-        <v>256</v>
-      </c>
-      <c r="D21" s="3">
-        <v>295</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="3">
-        <v>366</v>
-      </c>
-      <c r="J21" s="3">
-        <v>405</v>
-      </c>
-      <c r="K21" s="3">
-        <v>40</v>
-      </c>
-      <c r="L21" s="3">
-        <v>2</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="3">
-        <v>296</v>
-      </c>
-      <c r="D22" s="3">
-        <v>320</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="3">
-        <v>406</v>
-      </c>
-      <c r="J22" s="3">
-        <v>440</v>
-      </c>
-      <c r="K22" s="3">
-        <v>35</v>
-      </c>
-      <c r="L22" s="3">
-        <v>2</v>
-      </c>
-      <c r="M22" s="3">
         <v>1</v>
       </c>
     </row>

--- a/hallsWithAllData.xlsx
+++ b/hallsWithAllData.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="ﺭﻭﺽ ﺍﻟﻔﺮﺝ" sheetId="1" r:id="rId1"/>
+    <sheet name="خلفاوي" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>اليوم الاول</t>
   </si>
@@ -61,6 +61,9 @@
     <t>A1</t>
   </si>
   <si>
+    <t>اعدادي هندسه</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
@@ -73,9 +76,6 @@
     <t>B2</t>
   </si>
   <si>
-    <t>B3</t>
-  </si>
-  <si>
     <t>C0</t>
   </si>
   <si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>C3</t>
-  </si>
-  <si>
-    <t>اعدادي هندسه</t>
   </si>
   <si>
     <t>رابعه حاسبات</t>
@@ -468,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,16 +581,16 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>80</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3">
         <v>616</v>
@@ -602,7 +599,7 @@
         <v>665</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="3">
         <v>441</v>
@@ -622,16 +619,16 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
+      <c r="C5" s="3">
+        <v>81</v>
+      </c>
+      <c r="D5" s="3">
+        <v>115</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
@@ -643,7 +640,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="3">
         <v>521</v>
@@ -663,16 +660,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="3">
+        <v>116</v>
+      </c>
+      <c r="D6" s="3">
+        <v>145</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
@@ -704,16 +701,16 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>146</v>
+      </c>
+      <c r="D7" s="3">
+        <v>170</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
@@ -725,13 +722,13 @@
         <v>13</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="I7" s="3">
+        <v>556</v>
+      </c>
+      <c r="J7" s="3">
+        <v>580</v>
       </c>
       <c r="K7" s="3">
         <v>25</v>
@@ -745,16 +742,16 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="3">
+        <v>171</v>
+      </c>
+      <c r="D8" s="3">
+        <v>210</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
@@ -766,13 +763,13 @@
         <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="3">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="J8" s="3">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="K8" s="3">
         <v>40</v>
@@ -786,16 +783,16 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <v>211</v>
+      </c>
+      <c r="D9" s="3">
+        <v>235</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
@@ -810,54 +807,54 @@
         <v>27</v>
       </c>
       <c r="I9" s="3">
-        <v>596</v>
+        <v>321</v>
       </c>
       <c r="J9" s="3">
-        <v>615</v>
+        <v>345</v>
       </c>
       <c r="K9" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3">
+        <v>236</v>
+      </c>
+      <c r="D10" s="3">
+        <v>255</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="3">
+        <v>346</v>
+      </c>
+      <c r="J10" s="3">
+        <v>365</v>
+      </c>
+      <c r="K10" s="3">
         <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="3">
-        <v>25</v>
       </c>
       <c r="L10" s="3">
         <v>2</v>
@@ -868,16 +865,16 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="3">
+        <v>256</v>
+      </c>
+      <c r="D11" s="3">
+        <v>295</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>11</v>
@@ -889,16 +886,16 @@
         <v>13</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="I11" s="3">
+        <v>366</v>
+      </c>
+      <c r="J11" s="3">
+        <v>405</v>
       </c>
       <c r="K11" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L11" s="3">
         <v>2</v>
@@ -909,16 +906,16 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C12" s="3">
+        <v>296</v>
+      </c>
+      <c r="D12" s="3">
+        <v>320</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>11</v>
@@ -930,62 +927,21 @@
         <v>13</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="I12" s="3">
+        <v>406</v>
+      </c>
+      <c r="J12" s="3">
+        <v>440</v>
       </c>
       <c r="K12" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L12" s="3">
         <v>2</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>320</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="3">
-        <v>321</v>
-      </c>
-      <c r="J13" s="3">
-        <v>440</v>
-      </c>
-      <c r="K13" s="3">
-        <v>400</v>
-      </c>
-      <c r="L13" s="3">
-        <v>2</v>
-      </c>
-      <c r="M13" s="3">
         <v>1</v>
       </c>
     </row>
